--- a/Calculo_Cai.xlsx
+++ b/Calculo_Cai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UTLVTE PC #5\Documents\Mi_destino_Caisa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2582688C-BF38-4F5B-AD6D-DE3BAD6841AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60754DA-C727-43C6-96A6-51185A17296F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{B921AF0D-47EE-42EC-860A-BCD5A3885698}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>calculo de la nota</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>reondeando</t>
+  </si>
+  <si>
+    <t>BIENVENIDOS A EXCEL  PRACTICA EN GIT HUB</t>
   </si>
 </sst>
 </file>
@@ -401,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A30ED235-3A1F-40F0-B8B7-79E75CBB3666}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,6 +459,11 @@
         <v>9</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
